--- a/tests/gait/data/manual_gait_results_vcwt.xlsx
+++ b/tests/gait/data/manual_gait_results_vcwt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasadamowicz/Documents/Packages/scikit-digital-health/tests/gait/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD2392A-49BC-2843-8288-F9F85FC1019C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15254612-0EC5-4A42-A005-0AB58C36D556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="500" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30020" yWindow="1980" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp" sheetId="1" r:id="rId1"/>
@@ -1009,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L79"/>
     </sheetView>
   </sheetViews>
@@ -1185,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="L2">
-        <v>8.1033377279497026E-2</v>
+        <v>8.1033377279496735E-2</v>
       </c>
       <c r="M2">
         <v>0.99639999999999995</v>
@@ -1256,27 +1256,27 @@
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD38" si="5">2*SQRT(2 * M2 * L2 - L2 * L2)</f>
-        <v>0.78718970015939704</v>
+        <v>0.78718970015939571</v>
       </c>
       <c r="AE2">
         <f>AD3-AD2</f>
-        <v>1.2232815595897839E-2</v>
+        <v>1.2232815595897728E-2</v>
       </c>
       <c r="AF2">
         <f>AD2+AD3</f>
-        <v>1.586612215914692</v>
+        <v>1.5866122159146892</v>
       </c>
       <c r="AG2">
         <f>AF3-AF2</f>
-        <v>-7.645773424713731E-3</v>
+        <v>-7.645773424713509E-3</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH33" si="6">AF2/P2</f>
-        <v>1.3445866236565187</v>
+        <v>1.3445866236565163</v>
       </c>
       <c r="AI2">
         <f>AH3-AH2</f>
-        <v>4.0471659229427193E-2</v>
+        <v>4.0471659229427415E-2</v>
       </c>
       <c r="AJ2">
         <f t="shared" ref="AJ2:AJ33" si="7">60 / N2</f>
@@ -1320,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="L3">
-        <v>8.3687630013776562E-2</v>
+        <v>8.3687630013776243E-2</v>
       </c>
       <c r="M3">
         <v>0.99639999999999995</v>
@@ -1391,27 +1391,27 @@
       </c>
       <c r="AD3">
         <f t="shared" si="5"/>
-        <v>0.79942251575529488</v>
+        <v>0.79942251575529344</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE66" si="21">AD4-AD3</f>
-        <v>-1.987858902061157E-2</v>
+        <v>-1.9878589020611348E-2</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF66" si="22">AD3+AD4</f>
-        <v>1.5789664424899783</v>
+        <v>1.5789664424899756</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG66" si="23">AF4-AF3</f>
-        <v>-0.20892878219852751</v>
+        <v>-0.20892878219852551</v>
       </c>
       <c r="AH3">
         <f t="shared" si="6"/>
-        <v>1.3850582828859459</v>
+        <v>1.3850582828859437</v>
       </c>
       <c r="AI3">
         <f t="shared" ref="AI3:AI66" si="24">AH4-AH3</f>
-        <v>-0.16181037191143632</v>
+        <v>-0.16181037191143477</v>
       </c>
       <c r="AJ3">
         <f t="shared" si="7"/>
@@ -1455,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>7.9399031313070162E-2</v>
+        <v>7.9399031313069912E-2</v>
       </c>
       <c r="M4">
         <v>0.99639999999999995</v>
@@ -1526,27 +1526,27 @@
       </c>
       <c r="AD4">
         <f t="shared" si="5"/>
-        <v>0.77954392673468331</v>
+        <v>0.77954392673468209</v>
       </c>
       <c r="AE4">
         <f t="shared" si="21"/>
-        <v>-0.18905019317791594</v>
+        <v>-0.18905019317791405</v>
       </c>
       <c r="AF4">
         <f t="shared" si="22"/>
-        <v>1.3700376602914508</v>
+        <v>1.3700376602914501</v>
       </c>
       <c r="AG4">
         <f t="shared" si="23"/>
-        <v>6.4667404899363401E-2</v>
+        <v>6.4667404899363179E-2</v>
       </c>
       <c r="AH4">
         <f t="shared" si="6"/>
-        <v>1.2232479109745096</v>
+        <v>1.2232479109745089</v>
       </c>
       <c r="AI4">
         <f t="shared" si="24"/>
-        <v>5.7738754374431656E-2</v>
+        <v>5.7738754374431434E-2</v>
       </c>
       <c r="AJ4">
         <f t="shared" si="7"/>
@@ -1590,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="L5">
-        <v>4.4747622470501389E-2</v>
+        <v>4.47476224705015E-2</v>
       </c>
       <c r="M5">
         <v>0.99639999999999995</v>
@@ -1661,27 +1661,27 @@
       </c>
       <c r="AD5">
         <f t="shared" si="5"/>
-        <v>0.59049373355676738</v>
+        <v>0.59049373355676804</v>
       </c>
       <c r="AE5">
         <f t="shared" si="21"/>
-        <v>0.25371759807727945</v>
+        <v>0.25371759807727723</v>
       </c>
       <c r="AF5">
         <f t="shared" si="22"/>
-        <v>1.4347050651908142</v>
+        <v>1.4347050651908133</v>
       </c>
       <c r="AG5">
         <f t="shared" si="23"/>
-        <v>0.20986944411970243</v>
+        <v>0.20986944411970021</v>
       </c>
       <c r="AH5">
         <f t="shared" si="6"/>
-        <v>1.2809866653489412</v>
+        <v>1.2809866653489403</v>
       </c>
       <c r="AI5">
         <f t="shared" si="24"/>
-        <v>0.18738343224973408</v>
+        <v>0.18738343224973231</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="7"/>
@@ -1725,7 +1725,7 @@
         <v>3</v>
       </c>
       <c r="L6">
-        <v>9.3826032457634337E-2</v>
+        <v>9.382603245763399E-2</v>
       </c>
       <c r="M6">
         <v>0.99639999999999995</v>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="AD6">
         <f t="shared" si="5"/>
-        <v>0.84421133163404682</v>
+        <v>0.84421133163404527</v>
       </c>
       <c r="AE6">
         <f t="shared" si="21"/>
@@ -1804,19 +1804,19 @@
       </c>
       <c r="AF6">
         <f t="shared" si="22"/>
-        <v>1.6445745093105166</v>
+        <v>1.6445745093105135</v>
       </c>
       <c r="AG6">
         <f t="shared" si="23"/>
-        <v>-0.11769514122903835</v>
+        <v>-0.11769514122903857</v>
       </c>
       <c r="AH6">
         <f t="shared" si="6"/>
-        <v>1.4683700975986753</v>
+        <v>1.4683700975986727</v>
       </c>
       <c r="AI6">
         <f t="shared" si="24"/>
-        <v>-8.0297944797331544E-2</v>
+        <v>-8.0297944797331988E-2</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="7"/>
@@ -1860,7 +1860,7 @@
         <v>3</v>
       </c>
       <c r="L7">
-        <v>8.3893750183098262E-2</v>
+        <v>8.3893750183097915E-2</v>
       </c>
       <c r="M7">
         <v>0.99639999999999995</v>
@@ -1931,27 +1931,27 @@
       </c>
       <c r="AD7">
         <f t="shared" si="5"/>
-        <v>0.80036317767646981</v>
+        <v>0.80036317767646825</v>
       </c>
       <c r="AE7">
         <f t="shared" si="21"/>
-        <v>-7.3846987271461217E-2</v>
+        <v>-7.3846987271461551E-2</v>
       </c>
       <c r="AF7">
         <f t="shared" si="22"/>
-        <v>1.5268793680814783</v>
+        <v>1.526879368081475</v>
       </c>
       <c r="AG7">
         <f t="shared" si="23"/>
-        <v>5.1450463965450499E-2</v>
+        <v>5.1450463965450055E-2</v>
       </c>
       <c r="AH7">
         <f t="shared" si="6"/>
-        <v>1.3880721528013438</v>
+        <v>1.3880721528013407</v>
       </c>
       <c r="AI7">
         <f t="shared" si="24"/>
-        <v>4.6773149059500474E-2</v>
+        <v>4.677314905950003E-2</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="7"/>
@@ -1995,7 +1995,7 @@
         <v>3</v>
       </c>
       <c r="L8">
-        <v>6.8576462752831246E-2</v>
+        <v>6.85764627528309E-2</v>
       </c>
       <c r="M8">
         <v>0.99639999999999995</v>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="AD8">
         <f t="shared" si="5"/>
-        <v>0.72651619040500859</v>
+        <v>0.7265161904050067</v>
       </c>
       <c r="AE8">
         <f t="shared" si="21"/>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="AF8">
         <f t="shared" si="22"/>
-        <v>1.5783298320469288</v>
+        <v>1.578329832046925</v>
       </c>
       <c r="AG8">
         <f t="shared" si="23"/>
@@ -2082,11 +2082,11 @@
       </c>
       <c r="AH8">
         <f t="shared" si="6"/>
-        <v>1.4348453018608442</v>
+        <v>1.4348453018608407</v>
       </c>
       <c r="AI8">
         <f t="shared" si="24"/>
-        <v>2.553627401376124E-2</v>
+        <v>2.5536274013761462E-2</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="7"/>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="L9">
-        <v>9.5613488123749368E-2</v>
+        <v>9.5613488123748952E-2</v>
       </c>
       <c r="M9">
         <v>0.99639999999999995</v>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AD9">
         <f t="shared" si="5"/>
-        <v>0.85181364164192019</v>
+        <v>0.85181364164191831</v>
       </c>
       <c r="AE9">
         <f t="shared" si="21"/>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="AF9">
         <f t="shared" si="22"/>
-        <v>1.6064197334620662</v>
+        <v>1.6064197334620625</v>
       </c>
       <c r="AG9">
         <f t="shared" si="23"/>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="AH9">
         <f t="shared" si="6"/>
-        <v>1.4603815758746055</v>
+        <v>1.4603815758746022</v>
       </c>
       <c r="AI9">
         <f t="shared" si="24"/>
@@ -2265,7 +2265,7 @@
         <v>3</v>
       </c>
       <c r="L10">
-        <v>7.419862744247592E-2</v>
+        <v>7.4198627442475532E-2</v>
       </c>
       <c r="M10">
         <v>0.99639999999999995</v>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="AD10">
         <f t="shared" si="5"/>
-        <v>0.75460609182014604</v>
+        <v>0.75460609182014415</v>
       </c>
       <c r="AE10">
         <f t="shared" si="21"/>
@@ -2344,15 +2344,15 @@
       </c>
       <c r="AF10">
         <f t="shared" si="22"/>
-        <v>1.5639070624204678</v>
+        <v>1.5639070624204641</v>
       </c>
       <c r="AG10">
         <f t="shared" si="23"/>
-        <v>0.15135270543573065</v>
+        <v>0.15135270543573087</v>
       </c>
       <c r="AH10">
         <f t="shared" si="6"/>
-        <v>1.4480620948337664</v>
+        <v>1.448062094833763</v>
       </c>
       <c r="AI10">
         <f t="shared" si="24"/>
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="L11">
-        <v>8.5866670161742931E-2</v>
+        <v>8.5866670161742487E-2</v>
       </c>
       <c r="M11">
         <v>0.99639999999999995</v>
@@ -2471,15 +2471,15 @@
       </c>
       <c r="AD11">
         <f t="shared" si="5"/>
-        <v>0.8093009706003218</v>
+        <v>0.80930097060031991</v>
       </c>
       <c r="AE11">
         <f t="shared" si="21"/>
-        <v>9.665782665555489E-2</v>
+        <v>9.6657826655555112E-2</v>
       </c>
       <c r="AF11">
         <f t="shared" si="22"/>
-        <v>1.7152597678561985</v>
+        <v>1.7152597678561949</v>
       </c>
       <c r="AG11">
         <f t="shared" si="23"/>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="AH11">
         <f t="shared" si="6"/>
-        <v>1.5882034887557392</v>
+        <v>1.5882034887557359</v>
       </c>
       <c r="AI11">
         <f t="shared" si="24"/>
@@ -2535,7 +2535,7 @@
         <v>3</v>
       </c>
       <c r="L12">
-        <v>0.1089189441916682</v>
+        <v>0.1089189441916678</v>
       </c>
       <c r="M12">
         <v>0.99639999999999995</v>
@@ -2606,27 +2606,27 @@
       </c>
       <c r="AD12">
         <f t="shared" si="5"/>
-        <v>0.90595879725587669</v>
+        <v>0.90595879725587503</v>
       </c>
       <c r="AE12">
         <f t="shared" si="21"/>
-        <v>-6.7756050907173182E-2</v>
+        <v>-6.7756050907173626E-2</v>
       </c>
       <c r="AF12">
         <f t="shared" si="22"/>
-        <v>1.7441615436045801</v>
+        <v>1.7441615436045765</v>
       </c>
       <c r="AG12">
         <f t="shared" si="23"/>
-        <v>-0.13107208026543593</v>
+        <v>-0.1310720802654366</v>
       </c>
       <c r="AH12">
         <f t="shared" si="6"/>
-        <v>1.6149643922264629</v>
+        <v>1.6149643922264596</v>
       </c>
       <c r="AI12">
         <f t="shared" si="24"/>
-        <v>-0.12136303728281095</v>
+        <v>-0.12136303728281161</v>
       </c>
       <c r="AJ12">
         <f t="shared" si="7"/>
@@ -2670,7 +2670,7 @@
         <v>3</v>
       </c>
       <c r="L13">
-        <v>9.2427102727425395E-2</v>
+        <v>9.2427102727424881E-2</v>
       </c>
       <c r="M13">
         <v>0.99639999999999995</v>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="AD13">
         <f t="shared" si="5"/>
-        <v>0.83820274634870351</v>
+        <v>0.8382027463487014</v>
       </c>
       <c r="AE13">
         <f t="shared" si="21"/>
@@ -2749,15 +2749,15 @@
       </c>
       <c r="AF13">
         <f t="shared" si="22"/>
-        <v>1.6130894633391442</v>
+        <v>1.6130894633391399</v>
       </c>
       <c r="AG13">
         <f t="shared" si="23"/>
-        <v>-4.5779064744310594E-2</v>
+        <v>-4.5779064744310816E-2</v>
       </c>
       <c r="AH13">
         <f t="shared" si="6"/>
-        <v>1.493601354943652</v>
+        <v>1.493601354943648</v>
       </c>
       <c r="AI13">
         <f t="shared" si="24"/>
@@ -2805,7 +2805,7 @@
         <v>3</v>
       </c>
       <c r="L14">
-        <v>7.8412743030741097E-2</v>
+        <v>7.8412743030740653E-2</v>
       </c>
       <c r="M14">
         <v>0.99639999999999995</v>
@@ -2876,27 +2876,27 @@
       </c>
       <c r="AD14">
         <f t="shared" si="5"/>
-        <v>0.77488671699044065</v>
+        <v>0.77488671699043854</v>
       </c>
       <c r="AE14">
         <f t="shared" si="21"/>
-        <v>1.7536964613952377E-2</v>
+        <v>1.7536964613952044E-2</v>
       </c>
       <c r="AF14">
         <f t="shared" si="22"/>
-        <v>1.5673103985948336</v>
+        <v>1.5673103985948291</v>
       </c>
       <c r="AG14">
         <f t="shared" si="23"/>
-        <v>-3.1559866844845796E-2</v>
+        <v>-3.155986684484624E-2</v>
       </c>
       <c r="AH14">
         <f t="shared" si="6"/>
-        <v>1.4512133320322531</v>
+        <v>1.4512133320322491</v>
       </c>
       <c r="AI14">
         <f t="shared" si="24"/>
-        <v>-2.922209893041261E-2</v>
+        <v>-2.9222098930413276E-2</v>
       </c>
       <c r="AJ14">
         <f t="shared" si="7"/>
@@ -2940,7 +2940,7 @@
         <v>3</v>
       </c>
       <c r="L15">
-        <v>8.2163084748742565E-2</v>
+        <v>8.2163084748742038E-2</v>
       </c>
       <c r="M15">
         <v>0.99639999999999995</v>
@@ -3011,15 +3011,15 @@
       </c>
       <c r="AD15">
         <f t="shared" si="5"/>
-        <v>0.79242368160439303</v>
+        <v>0.79242368160439058</v>
       </c>
       <c r="AE15">
         <f t="shared" si="21"/>
-        <v>-4.9096831458798285E-2</v>
+        <v>-4.9096831458798396E-2</v>
       </c>
       <c r="AF15">
         <f t="shared" si="22"/>
-        <v>1.5357505317499878</v>
+        <v>1.5357505317499829</v>
       </c>
       <c r="AG15">
         <f t="shared" si="23"/>
@@ -3027,11 +3027,11 @@
       </c>
       <c r="AH15">
         <f t="shared" si="6"/>
-        <v>1.4219912331018405</v>
+        <v>1.4219912331018358</v>
       </c>
       <c r="AI15">
         <f t="shared" si="24"/>
-        <v>-6.5897088058973763E-2</v>
+        <v>-6.5897088058973541E-2</v>
       </c>
       <c r="AJ15">
         <f t="shared" si="7"/>
@@ -3075,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="L16">
-        <v>7.1911352983089816E-2</v>
+        <v>7.1911352983089302E-2</v>
       </c>
       <c r="M16">
         <v>0.99639999999999995</v>
@@ -3146,27 +3146,27 @@
       </c>
       <c r="AD16">
         <f t="shared" si="5"/>
-        <v>0.74332685014559474</v>
+        <v>0.74332685014559219</v>
       </c>
       <c r="AE16">
         <f t="shared" si="21"/>
-        <v>-2.2072023644893357E-2</v>
+        <v>-2.2072023644893135E-2</v>
       </c>
       <c r="AF16">
         <f t="shared" si="22"/>
-        <v>1.4645816766462962</v>
+        <v>1.4645816766462914</v>
       </c>
       <c r="AG16">
         <f t="shared" si="23"/>
-        <v>9.8046334919269951E-2</v>
+        <v>9.8046334919269729E-2</v>
       </c>
       <c r="AH16">
         <f t="shared" si="6"/>
-        <v>1.3560941450428667</v>
+        <v>1.3560941450428623</v>
       </c>
       <c r="AI16">
         <f t="shared" si="24"/>
-        <v>3.9109436712102985E-2</v>
+        <v>3.9109436712102763E-2</v>
       </c>
       <c r="AJ16">
         <f t="shared" si="7"/>
@@ -3210,7 +3210,7 @@
         <v>3</v>
       </c>
       <c r="L17">
-        <v>6.7550804052476571E-2</v>
+        <v>6.7550804052476099E-2</v>
       </c>
       <c r="M17">
         <v>0.99639999999999995</v>
@@ -3281,27 +3281,27 @@
       </c>
       <c r="AD17">
         <f t="shared" si="5"/>
-        <v>0.72125482650070138</v>
+        <v>0.72125482650069905</v>
       </c>
       <c r="AE17">
         <f t="shared" si="21"/>
-        <v>0.12011835856416342</v>
+        <v>0.12011835856416297</v>
       </c>
       <c r="AF17">
         <f t="shared" si="22"/>
-        <v>1.5626280115655662</v>
+        <v>1.5626280115655611</v>
       </c>
       <c r="AG17">
         <f t="shared" si="23"/>
-        <v>5.8312679735407213E-2</v>
+        <v>5.8312679735406103E-2</v>
       </c>
       <c r="AH17">
         <f t="shared" si="6"/>
-        <v>1.3952035817549697</v>
+        <v>1.3952035817549651</v>
       </c>
       <c r="AI17">
         <f t="shared" si="24"/>
-        <v>2.6674217631849073E-2</v>
+        <v>2.6674217631848407E-2</v>
       </c>
       <c r="AJ17">
         <f t="shared" si="7"/>
@@ -3345,7 +3345,7 @@
         <v>3</v>
       </c>
       <c r="L18">
-        <v>9.3163734749622001E-2</v>
+        <v>9.3163734749621363E-2</v>
       </c>
       <c r="M18">
         <v>0.99639999999999995</v>
@@ -3416,27 +3416,27 @@
       </c>
       <c r="AD18">
         <f t="shared" si="5"/>
-        <v>0.8413731850648648</v>
+        <v>0.84137318506486203</v>
       </c>
       <c r="AE18">
         <f t="shared" si="21"/>
-        <v>-6.1805678828756316E-2</v>
+        <v>-6.180567882875676E-2</v>
       </c>
       <c r="AF18">
         <f t="shared" si="22"/>
-        <v>1.6209406913009734</v>
+        <v>1.6209406913009672</v>
       </c>
       <c r="AG18">
         <f t="shared" si="23"/>
-        <v>-0.12325371350718584</v>
+        <v>-0.12325371350718628</v>
       </c>
       <c r="AH18">
         <f t="shared" si="6"/>
-        <v>1.4218777993868188</v>
+        <v>1.4218777993868135</v>
       </c>
       <c r="AI18">
         <f t="shared" si="24"/>
-        <v>-0.108117292550163</v>
+        <v>-0.10811729255016345</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="7"/>
@@ -3480,7 +3480,7 @@
         <v>3</v>
       </c>
       <c r="L19">
-        <v>7.9404042645114081E-2</v>
+        <v>7.9404042645113415E-2</v>
       </c>
       <c r="M19">
         <v>0.99639999999999995</v>
@@ -3551,27 +3551,27 @@
       </c>
       <c r="AD19">
         <f t="shared" si="5"/>
-        <v>0.77956750623610849</v>
+        <v>0.77956750623610527</v>
       </c>
       <c r="AE19">
         <f t="shared" si="21"/>
-        <v>-6.1448034678429408E-2</v>
+        <v>-6.1448034678429631E-2</v>
       </c>
       <c r="AF19">
         <f t="shared" si="22"/>
-        <v>1.4976869777937876</v>
+        <v>1.4976869777937809</v>
       </c>
       <c r="AG19">
         <f t="shared" si="23"/>
-        <v>-0.14941473353997692</v>
+        <v>-0.14941473353997758</v>
       </c>
       <c r="AH19">
         <f t="shared" si="6"/>
-        <v>1.3137605068366558</v>
+        <v>1.31376050683665</v>
       </c>
       <c r="AI19">
         <f t="shared" si="24"/>
-        <v>-0.13106555573682188</v>
+        <v>-0.13106555573682255</v>
       </c>
       <c r="AJ19">
         <f t="shared" si="7"/>
@@ -3615,7 +3615,7 @@
         <v>3</v>
       </c>
       <c r="L20">
-        <v>6.694367174007046E-2</v>
+        <v>6.6943671740069779E-2</v>
       </c>
       <c r="M20">
         <v>0.99639999999999995</v>
@@ -3686,27 +3686,27 @@
       </c>
       <c r="AD20">
         <f t="shared" si="5"/>
-        <v>0.71811947155767908</v>
+        <v>0.71811947155767564</v>
       </c>
       <c r="AE20">
         <f t="shared" si="21"/>
-        <v>-8.7966698861547621E-2</v>
+        <v>-8.7966698861547954E-2</v>
       </c>
       <c r="AF20">
         <f t="shared" si="22"/>
-        <v>1.3482722442538106</v>
+        <v>1.3482722442538033</v>
       </c>
       <c r="AG20">
         <f t="shared" si="23"/>
-        <v>0.11950290474711611</v>
+        <v>0.11950290474711678</v>
       </c>
       <c r="AH20">
         <f t="shared" si="6"/>
-        <v>1.1826949510998339</v>
+        <v>1.1826949510998275</v>
       </c>
       <c r="AI20">
         <f t="shared" si="24"/>
-        <v>0.1278185747938505</v>
+        <v>0.12781857479385117</v>
       </c>
       <c r="AJ20">
         <f t="shared" si="7"/>
@@ -3750,7 +3750,7 @@
         <v>3</v>
       </c>
       <c r="L21">
-        <v>5.112764201747419E-2</v>
+        <v>5.1127642017473558E-2</v>
       </c>
       <c r="M21">
         <v>0.99639999999999995</v>
@@ -3821,27 +3821,27 @@
       </c>
       <c r="AD21">
         <f t="shared" si="5"/>
-        <v>0.63015277269613146</v>
+        <v>0.63015277269612768</v>
       </c>
       <c r="AE21">
         <f t="shared" si="21"/>
-        <v>0.20746960360866396</v>
+        <v>0.20746960360866462</v>
       </c>
       <c r="AF21">
         <f t="shared" si="22"/>
-        <v>1.4677751490009268</v>
+        <v>1.4677751490009201</v>
       </c>
       <c r="AG21">
         <f t="shared" si="23"/>
-        <v>0.17022094673014232</v>
+        <v>0.17022094673014276</v>
       </c>
       <c r="AH21">
         <f t="shared" si="6"/>
-        <v>1.3105135258936844</v>
+        <v>1.3105135258936786</v>
       </c>
       <c r="AI21">
         <f t="shared" si="24"/>
-        <v>0.17857383386183279</v>
+        <v>0.17857383386183301</v>
       </c>
       <c r="AJ21">
         <f t="shared" si="7"/>
@@ -3885,7 +3885,7 @@
         <v>3</v>
       </c>
       <c r="L22">
-        <v>9.2292623258510884E-2</v>
+        <v>9.2292623258510176E-2</v>
       </c>
       <c r="M22">
         <v>0.99639999999999995</v>
@@ -3956,23 +3956,23 @@
       </c>
       <c r="AD22">
         <f t="shared" si="5"/>
-        <v>0.83762237630479541</v>
+        <v>0.8376223763047923</v>
       </c>
       <c r="AE22">
         <f t="shared" si="21"/>
-        <v>-3.7248656878521857E-2</v>
+        <v>-3.7248656878521635E-2</v>
       </c>
       <c r="AF22">
         <f t="shared" si="22"/>
-        <v>1.6379960957310691</v>
+        <v>1.6379960957310629</v>
       </c>
       <c r="AG22">
         <f t="shared" si="23"/>
-        <v>-1.3634159549843039E-2</v>
+        <v>-1.3634159549842817E-2</v>
       </c>
       <c r="AH22">
         <f t="shared" si="6"/>
-        <v>1.4890873597555172</v>
+        <v>1.4890873597555117</v>
       </c>
       <c r="AI22">
         <f t="shared" si="24"/>
@@ -4020,7 +4020,7 @@
         <v>3</v>
       </c>
       <c r="L23">
-        <v>8.3896061754833759E-2</v>
+        <v>8.3896061754833134E-2</v>
       </c>
       <c r="M23">
         <v>0.99639999999999995</v>
@@ -4091,27 +4091,27 @@
       </c>
       <c r="AD23">
         <f t="shared" si="5"/>
-        <v>0.80037371942627356</v>
+        <v>0.80037371942627067</v>
       </c>
       <c r="AE23">
         <f t="shared" si="21"/>
-        <v>2.3614497328678929E-2</v>
+        <v>2.3614497328678818E-2</v>
       </c>
       <c r="AF23">
         <f t="shared" si="22"/>
-        <v>1.624361936181226</v>
+        <v>1.62436193618122</v>
       </c>
       <c r="AG23">
         <f t="shared" si="23"/>
-        <v>-0.12682603268299419</v>
+        <v>-0.12682603268299508</v>
       </c>
       <c r="AH23">
         <f t="shared" si="6"/>
-        <v>1.5040388297974314</v>
+        <v>1.5040388297974259</v>
       </c>
       <c r="AI23">
         <f t="shared" si="24"/>
-        <v>-0.14264255388994806</v>
+        <v>-0.14264255388994873</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="7"/>
@@ -4155,7 +4155,7 @@
         <v>3</v>
       </c>
       <c r="L24">
-        <v>8.9165843531975292E-2</v>
+        <v>8.9165843531974612E-2</v>
       </c>
       <c r="M24">
         <v>0.99639999999999995</v>
@@ -4226,27 +4226,27 @@
       </c>
       <c r="AD24">
         <f t="shared" si="5"/>
-        <v>0.82398821675495248</v>
+        <v>0.82398821675494949</v>
       </c>
       <c r="AE24">
         <f t="shared" si="21"/>
-        <v>-0.15044053001167323</v>
+        <v>-0.15044053001167401</v>
       </c>
       <c r="AF24">
         <f t="shared" si="22"/>
-        <v>1.4975359034982318</v>
+        <v>1.497535903498225</v>
       </c>
       <c r="AG24">
         <f t="shared" si="23"/>
-        <v>-2.1726058753354982E-2</v>
+        <v>-2.1726058753355426E-2</v>
       </c>
       <c r="AH24">
         <f t="shared" si="6"/>
-        <v>1.3613962759074834</v>
+        <v>1.3613962759074771</v>
       </c>
       <c r="AI24">
         <f t="shared" si="24"/>
-        <v>-4.3708914528129084E-2</v>
+        <v>-4.3708914528129528E-2</v>
       </c>
       <c r="AJ24">
         <f t="shared" si="7"/>
@@ -4290,7 +4290,7 @@
         <v>3</v>
       </c>
       <c r="L25">
-        <v>5.8638655936013563E-2</v>
+        <v>5.8638655936012883E-2</v>
       </c>
       <c r="M25">
         <v>0.99639999999999995</v>
@@ -4361,27 +4361,27 @@
       </c>
       <c r="AD25">
         <f t="shared" si="5"/>
-        <v>0.67354768674327925</v>
+        <v>0.67354768674327548</v>
       </c>
       <c r="AE25">
         <f t="shared" si="21"/>
-        <v>0.12871447125831836</v>
+        <v>0.12871447125831847</v>
       </c>
       <c r="AF25">
         <f t="shared" si="22"/>
-        <v>1.4758098447448769</v>
+        <v>1.4758098447448695</v>
       </c>
       <c r="AG25">
         <f t="shared" si="23"/>
-        <v>0.11326728373798578</v>
+        <v>0.11326728373798622</v>
       </c>
       <c r="AH25">
         <f t="shared" si="6"/>
-        <v>1.3176873613793543</v>
+        <v>1.3176873613793476</v>
       </c>
       <c r="AI25">
         <f t="shared" si="24"/>
-        <v>0.12692820996870258</v>
+        <v>0.12692820996870302</v>
       </c>
       <c r="AJ25">
         <f t="shared" si="7"/>
@@ -4425,7 +4425,7 @@
         <v>3</v>
       </c>
       <c r="L26">
-        <v>8.4310740409879126E-2</v>
+        <v>8.4310740409878335E-2</v>
       </c>
       <c r="M26">
         <v>0.99639999999999995</v>
@@ -4496,27 +4496,27 @@
       </c>
       <c r="AD26">
         <f t="shared" si="5"/>
-        <v>0.80226215800159761</v>
+        <v>0.80226215800159395</v>
       </c>
       <c r="AE26">
         <f t="shared" si="21"/>
-        <v>-1.5447187520332473E-2</v>
+        <v>-1.544718752033214E-2</v>
       </c>
       <c r="AF26">
         <f t="shared" si="22"/>
-        <v>1.5890771284828626</v>
+        <v>1.5890771284828558</v>
       </c>
       <c r="AG26">
         <f t="shared" si="23"/>
-        <v>-3.2764972193651376E-2</v>
+        <v>-3.276497219365182E-2</v>
       </c>
       <c r="AH26">
         <f t="shared" si="6"/>
-        <v>1.4446155713480568</v>
+        <v>1.4446155713480506</v>
       </c>
       <c r="AI26">
         <f t="shared" si="24"/>
-        <v>-5.5051146089832637E-2</v>
+        <v>-5.5051146089832859E-2</v>
       </c>
       <c r="AJ26">
         <f t="shared" si="7"/>
@@ -4560,7 +4560,7 @@
         <v>3</v>
       </c>
       <c r="L27">
-        <v>8.0952835737287648E-2</v>
+        <v>8.0952835737286941E-2</v>
       </c>
       <c r="M27">
         <v>0.99639999999999995</v>
@@ -4631,23 +4631,23 @@
       </c>
       <c r="AD27">
         <f t="shared" si="5"/>
-        <v>0.78681497048126514</v>
+        <v>0.78681497048126181</v>
       </c>
       <c r="AE27">
         <f t="shared" si="21"/>
-        <v>-1.7317784673319014E-2</v>
+        <v>-1.7317784673319681E-2</v>
       </c>
       <c r="AF27">
         <f t="shared" si="22"/>
-        <v>1.5563121562892113</v>
+        <v>1.5563121562892039</v>
       </c>
       <c r="AG27">
         <f t="shared" si="23"/>
-        <v>2.6672206031157497E-3</v>
+        <v>2.6672206031155277E-3</v>
       </c>
       <c r="AH27">
         <f t="shared" si="6"/>
-        <v>1.3895644252582242</v>
+        <v>1.3895644252582178</v>
       </c>
       <c r="AI27">
         <f t="shared" si="24"/>
@@ -4695,7 +4695,7 @@
         <v>3</v>
       </c>
       <c r="L28">
-        <v>7.7280051212893761E-2</v>
+        <v>7.7280051212892914E-2</v>
       </c>
       <c r="M28">
         <v>0.99639999999999995</v>
@@ -4766,15 +4766,15 @@
       </c>
       <c r="AD28">
         <f t="shared" si="5"/>
-        <v>0.76949718580794613</v>
+        <v>0.76949718580794213</v>
       </c>
       <c r="AE28">
         <f t="shared" si="21"/>
-        <v>1.9985005276434653E-2</v>
+        <v>1.9985005276435097E-2</v>
       </c>
       <c r="AF28">
         <f t="shared" si="22"/>
-        <v>1.558979376892327</v>
+        <v>1.5589793768923195</v>
       </c>
       <c r="AG28">
         <f t="shared" si="23"/>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="AH28">
         <f t="shared" si="6"/>
-        <v>1.3675257692037956</v>
+        <v>1.3675257692037892</v>
       </c>
       <c r="AI28">
         <f t="shared" si="24"/>
-        <v>8.2792903851608868E-2</v>
+        <v>8.2792903851608646E-2</v>
       </c>
       <c r="AJ28">
         <f t="shared" si="7"/>
@@ -4830,7 +4830,7 @@
         <v>3</v>
       </c>
       <c r="L29">
-        <v>8.1527097630413325E-2</v>
+        <v>8.1527097630412534E-2</v>
       </c>
       <c r="M29">
         <v>0.99639999999999995</v>
@@ -4901,27 +4901,27 @@
       </c>
       <c r="AD29">
         <f t="shared" si="5"/>
-        <v>0.78948219108438078</v>
+        <v>0.78948219108437723</v>
       </c>
       <c r="AE29">
         <f t="shared" si="21"/>
-        <v>7.4398905114399394E-2</v>
+        <v>7.4398905114399061E-2</v>
       </c>
       <c r="AF29">
         <f t="shared" si="22"/>
-        <v>1.653363287283161</v>
+        <v>1.6533632872831534</v>
       </c>
       <c r="AG29">
         <f t="shared" si="23"/>
-        <v>-2.4212540132758864E-2</v>
+        <v>-2.4212540132759308E-2</v>
       </c>
       <c r="AH29">
         <f t="shared" si="6"/>
-        <v>1.4503186730554045</v>
+        <v>1.4503186730553979</v>
       </c>
       <c r="AI29">
         <f t="shared" si="24"/>
-        <v>-2.1239070291893869E-2</v>
+        <v>-2.1239070291894091E-2</v>
       </c>
       <c r="AJ29">
         <f t="shared" si="7"/>
@@ -4965,7 +4965,7 @@
         <v>3</v>
       </c>
       <c r="L30">
-        <v>9.8491138863415345E-2</v>
+        <v>9.8491138863414415E-2</v>
       </c>
       <c r="M30">
         <v>0.99639999999999995</v>
@@ -5036,27 +5036,27 @@
       </c>
       <c r="AD30">
         <f t="shared" si="5"/>
-        <v>0.86388109619878017</v>
+        <v>0.86388109619877629</v>
       </c>
       <c r="AE30">
         <f t="shared" si="21"/>
-        <v>-9.8611445247158258E-2</v>
+        <v>-9.8611445247158591E-2</v>
       </c>
       <c r="AF30">
         <f t="shared" si="22"/>
-        <v>1.6291507471504021</v>
+        <v>1.6291507471503941</v>
       </c>
       <c r="AG30">
         <f t="shared" si="23"/>
-        <v>-0.11277092811579292</v>
+        <v>-0.11277092811579381</v>
       </c>
       <c r="AH30">
         <f t="shared" si="6"/>
-        <v>1.4290796027635106</v>
+        <v>1.4290796027635038</v>
       </c>
       <c r="AI30">
         <f t="shared" si="24"/>
-        <v>-9.8921866768239441E-2</v>
+        <v>-9.892186676824033E-2</v>
       </c>
       <c r="AJ30">
         <f t="shared" si="7"/>
@@ -5100,7 +5100,7 @@
         <v>3</v>
       </c>
       <c r="L31">
-        <v>7.639807047316706E-2</v>
+        <v>7.6398070473166171E-2</v>
       </c>
       <c r="M31">
         <v>0.99639999999999995</v>
@@ -5171,23 +5171,23 @@
       </c>
       <c r="AD31">
         <f t="shared" si="5"/>
-        <v>0.76526965095162192</v>
+        <v>0.7652696509516177</v>
       </c>
       <c r="AE31">
         <f t="shared" si="21"/>
-        <v>-1.4159482868634776E-2</v>
+        <v>-1.4159482868634998E-2</v>
       </c>
       <c r="AF31">
         <f t="shared" si="22"/>
-        <v>1.5163798190346092</v>
+        <v>1.5163798190346003</v>
       </c>
       <c r="AG31">
         <f t="shared" si="23"/>
-        <v>-2.8617586252319693E-3</v>
+        <v>-2.8617586252317473E-3</v>
       </c>
       <c r="AH31">
         <f t="shared" si="6"/>
-        <v>1.3301577359952712</v>
+        <v>1.3301577359952634</v>
       </c>
       <c r="AI31">
         <f t="shared" si="24"/>
@@ -5235,7 +5235,7 @@
         <v>3</v>
       </c>
       <c r="L32">
-        <v>7.3485410858303374E-2</v>
+        <v>7.3485410858302472E-2</v>
       </c>
       <c r="M32">
         <v>0.99639999999999995</v>
@@ -5306,27 +5306,27 @@
       </c>
       <c r="AD32">
         <f t="shared" si="5"/>
-        <v>0.75111016808298714</v>
+        <v>0.7511101680829827</v>
       </c>
       <c r="AE32">
         <f t="shared" si="21"/>
-        <v>1.1297724243402918E-2</v>
+        <v>1.1297724243403251E-2</v>
       </c>
       <c r="AF32">
         <f t="shared" si="22"/>
-        <v>1.5135180604093772</v>
+        <v>1.5135180604093685</v>
       </c>
       <c r="AG32">
         <f t="shared" si="23"/>
-        <v>-4.7252923935696689E-3</v>
+        <v>-4.7252923935692248E-3</v>
       </c>
       <c r="AH32">
         <f t="shared" si="6"/>
-        <v>1.3513554110798009</v>
+        <v>1.3513554110797932</v>
       </c>
       <c r="AI32">
         <f t="shared" si="24"/>
-        <v>4.5674929675576292E-2</v>
+        <v>4.5674929675576514E-2</v>
       </c>
       <c r="AJ32">
         <f t="shared" si="7"/>
@@ -5370,7 +5370,7 @@
         <v>3</v>
       </c>
       <c r="L33">
-        <v>7.5804262757203561E-2</v>
+        <v>7.5804262757202714E-2</v>
       </c>
       <c r="M33">
         <v>0.99639999999999995</v>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="AD33">
         <f t="shared" si="5"/>
-        <v>0.76240789232639006</v>
+        <v>0.76240789232638595</v>
       </c>
       <c r="AE33">
         <f t="shared" si="21"/>
@@ -5449,19 +5449,19 @@
       </c>
       <c r="AF33">
         <f t="shared" si="22"/>
-        <v>1.5087927680158075</v>
+        <v>1.5087927680157993</v>
       </c>
       <c r="AG33">
         <f t="shared" si="23"/>
-        <v>-0.15227006671510024</v>
+        <v>-0.15227006671510157</v>
       </c>
       <c r="AH33">
         <f t="shared" si="6"/>
-        <v>1.3970303407553772</v>
+        <v>1.3970303407553697</v>
       </c>
       <c r="AI33">
         <f t="shared" si="24"/>
-        <v>-0.16382788502746171</v>
+        <v>-0.16382788502746282</v>
       </c>
       <c r="AJ33">
         <f t="shared" si="7"/>
@@ -5505,7 +5505,7 @@
         <v>3</v>
       </c>
       <c r="L34">
-        <v>7.2527517275504536E-2</v>
+        <v>7.2527517275503703E-2</v>
       </c>
       <c r="M34">
         <v>0.99639999999999995</v>
@@ -5576,27 +5576,27 @@
       </c>
       <c r="AD34">
         <f t="shared" si="5"/>
-        <v>0.74638487568941747</v>
+        <v>0.74638487568941336</v>
       </c>
       <c r="AE34">
         <f t="shared" si="21"/>
-        <v>-0.13624705007812754</v>
+        <v>-0.13624705007812898</v>
       </c>
       <c r="AF34">
         <f t="shared" si="22"/>
-        <v>1.3565227013007073</v>
+        <v>1.3565227013006977</v>
       </c>
       <c r="AG34">
         <f t="shared" si="23"/>
-        <v>1.9302052045393037E-2</v>
+        <v>1.9302052045392371E-2</v>
       </c>
       <c r="AH34">
         <f t="shared" ref="AH34:AH65" si="31">AF34/P34</f>
-        <v>1.2332024557279155</v>
+        <v>1.2332024557279069</v>
       </c>
       <c r="AI34">
         <f t="shared" si="24"/>
-        <v>-2.6338637003266108E-2</v>
+        <v>-2.633863700326633E-2</v>
       </c>
       <c r="AJ34">
         <f t="shared" ref="AJ34:AJ65" si="32">60 / N34</f>
@@ -5640,7 +5640,7 @@
         <v>3</v>
       </c>
       <c r="L35">
-        <v>4.7850624142537428E-2</v>
+        <v>4.7850624142536539E-2</v>
       </c>
       <c r="M35">
         <v>0.99639999999999995</v>
@@ -5711,27 +5711,27 @@
       </c>
       <c r="AD35">
         <f t="shared" si="5"/>
-        <v>0.61013782561128993</v>
+        <v>0.61013782561128438</v>
       </c>
       <c r="AE35">
         <f t="shared" si="21"/>
-        <v>0.15554910212352058</v>
+        <v>0.15554910212352124</v>
       </c>
       <c r="AF35">
         <f t="shared" si="22"/>
-        <v>1.3758247533461003</v>
+        <v>1.3758247533460901</v>
       </c>
       <c r="AG35">
         <f t="shared" si="23"/>
-        <v>0.16538013737160639</v>
+        <v>0.16538013737160684</v>
       </c>
       <c r="AH35">
         <f t="shared" si="31"/>
-        <v>1.2068638187246494</v>
+        <v>1.2068638187246405</v>
       </c>
       <c r="AI35">
         <f t="shared" si="24"/>
-        <v>0.14507029594000564</v>
+        <v>0.14507029594000609</v>
       </c>
       <c r="AJ35">
         <f t="shared" si="32"/>
@@ -5775,7 +5775,7 @@
         <v>3</v>
       </c>
       <c r="L36">
-        <v>7.6484872298532763E-2</v>
+        <v>7.6484872298531764E-2</v>
       </c>
       <c r="M36">
         <v>0.99639999999999995</v>
@@ -5846,27 +5846,27 @@
       </c>
       <c r="AD36">
         <f t="shared" si="5"/>
-        <v>0.76568692773481051</v>
+        <v>0.76568692773480562</v>
       </c>
       <c r="AE36">
         <f t="shared" si="21"/>
-        <v>9.8310352480857066E-3</v>
+        <v>9.8310352480855956E-3</v>
       </c>
       <c r="AF36">
         <f t="shared" si="22"/>
-        <v>1.5412048907177067</v>
+        <v>1.541204890717697</v>
       </c>
       <c r="AG36">
         <f t="shared" si="23"/>
-        <v>-1.9179749647162847E-2</v>
+        <v>-1.9179749647163735E-2</v>
       </c>
       <c r="AH36">
         <f t="shared" si="31"/>
-        <v>1.3519341146646551</v>
+        <v>1.3519341146646466</v>
       </c>
       <c r="AI36">
         <f t="shared" si="24"/>
-        <v>-3.9843475810737772E-2</v>
+        <v>-3.984347581073866E-2</v>
       </c>
       <c r="AJ36">
         <f t="shared" si="32"/>
@@ -5910,7 +5910,7 @@
         <v>2</v>
       </c>
       <c r="L37">
-        <v>7.8546018000295009E-2</v>
+        <v>7.8546018000293955E-2</v>
       </c>
       <c r="M37">
         <v>0.99639999999999995</v>
@@ -5981,27 +5981,27 @@
       </c>
       <c r="AD37">
         <f t="shared" si="5"/>
-        <v>0.77551796298289621</v>
+        <v>0.77551796298289122</v>
       </c>
       <c r="AE37">
         <f t="shared" si="21"/>
-        <v>-2.9010784895248443E-2</v>
+        <v>-2.901078489524922E-2</v>
       </c>
       <c r="AF37">
         <f t="shared" si="22"/>
-        <v>1.5220251410705439</v>
+        <v>1.5220251410705332</v>
       </c>
       <c r="AG37" s="1">
         <f t="shared" si="23"/>
-        <v>-1.5220251410705439</v>
+        <v>-1.5220251410705332</v>
       </c>
       <c r="AH37">
         <f t="shared" si="31"/>
-        <v>1.3120906388539173</v>
+        <v>1.312090638853908</v>
       </c>
       <c r="AI37" s="1">
         <f t="shared" si="24"/>
-        <v>-1.3120906388539173</v>
+        <v>-1.312090638853908</v>
       </c>
       <c r="AJ37">
         <f t="shared" si="32"/>
@@ -6045,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="L38">
-        <v>7.2552221269161568E-2</v>
+        <v>7.2552221269160375E-2</v>
       </c>
       <c r="M38">
         <v>0.99639999999999995</v>
@@ -6116,11 +6116,11 @@
       </c>
       <c r="AD38">
         <f t="shared" si="5"/>
-        <v>0.74650717808764777</v>
+        <v>0.746507178087642</v>
       </c>
       <c r="AE38" s="1">
         <f t="shared" si="21"/>
-        <v>-0.74650717808764777</v>
+        <v>-0.746507178087642</v>
       </c>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1">
@@ -6246,12 +6246,12 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1">
         <f t="shared" si="21"/>
-        <v>0.58844494731492492</v>
+        <v>0.58844494731491681</v>
       </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1">
         <f t="shared" si="23"/>
-        <v>1.2315886901913409</v>
+        <v>1.2315886901913258</v>
       </c>
       <c r="AH39" s="1">
         <f t="shared" si="31"/>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="AI39" s="1">
         <f t="shared" si="24"/>
-        <v>1.009498926386345</v>
+        <v>1.0094989263863325</v>
       </c>
       <c r="AJ39" s="1">
         <f t="shared" si="32"/>
@@ -6303,7 +6303,7 @@
         <v>3</v>
       </c>
       <c r="L40">
-        <v>4.4430412253162473E-2</v>
+        <v>4.4430412253161217E-2</v>
       </c>
       <c r="M40">
         <v>0.99639999999999995</v>
@@ -6374,27 +6374,27 @@
       </c>
       <c r="AD40">
         <f t="shared" ref="AD40:AD49" si="33">2*SQRT(2 * M40 * L40 - L40 * L40)</f>
-        <v>0.58844494731492492</v>
+        <v>0.58844494731491681</v>
       </c>
       <c r="AE40">
         <f t="shared" si="21"/>
-        <v>5.4698795561490932E-2</v>
+        <v>5.4698795561492042E-2</v>
       </c>
       <c r="AF40">
         <f t="shared" si="22"/>
-        <v>1.2315886901913409</v>
+        <v>1.2315886901913258</v>
       </c>
       <c r="AG40">
         <f t="shared" si="23"/>
-        <v>5.4583300962582015E-2</v>
+        <v>5.4583300962582904E-2</v>
       </c>
       <c r="AH40">
         <f t="shared" si="31"/>
-        <v>1.009498926386345</v>
+        <v>1.0094989263863325</v>
       </c>
       <c r="AI40">
         <f t="shared" si="24"/>
-        <v>8.0477337303420216E-2</v>
+        <v>8.047733730342066E-2</v>
       </c>
       <c r="AJ40">
         <f t="shared" si="32"/>
@@ -6438,7 +6438,7 @@
         <v>3</v>
       </c>
       <c r="L41">
-        <v>5.3317558481906287E-2</v>
+        <v>5.3317558481905093E-2</v>
       </c>
       <c r="M41">
         <v>0.99639999999999995</v>
@@ -6509,27 +6509,27 @@
       </c>
       <c r="AD41">
         <f t="shared" si="33"/>
-        <v>0.64314374287641585</v>
+        <v>0.64314374287640885</v>
       </c>
       <c r="AE41">
         <f t="shared" si="21"/>
-        <v>-1.154945989088052E-4</v>
+        <v>-1.1549459890913827E-4</v>
       </c>
       <c r="AF41">
         <f t="shared" si="22"/>
-        <v>1.2861719911539229</v>
+        <v>1.2861719911539087</v>
       </c>
       <c r="AG41">
         <f t="shared" si="23"/>
-        <v>7.6879171050680206E-2</v>
+        <v>7.6879171050681316E-2</v>
       </c>
       <c r="AH41">
         <f t="shared" si="31"/>
-        <v>1.0899762636897652</v>
+        <v>1.0899762636897532</v>
       </c>
       <c r="AI41">
         <f t="shared" si="24"/>
-        <v>8.5067841659030696E-2</v>
+        <v>8.5067841659031362E-2</v>
       </c>
       <c r="AJ41">
         <f t="shared" si="32"/>
@@ -6573,7 +6573,7 @@
         <v>3</v>
       </c>
       <c r="L42">
-        <v>5.3297869804499819E-2</v>
+        <v>5.3297869804498563E-2</v>
       </c>
       <c r="M42">
         <v>0.99639999999999995</v>
@@ -6644,27 +6644,27 @@
       </c>
       <c r="AD42">
         <f t="shared" si="33"/>
-        <v>0.64302824827750704</v>
+        <v>0.64302824827749971</v>
       </c>
       <c r="AE42">
         <f t="shared" si="21"/>
-        <v>7.6994665649589122E-2</v>
+        <v>7.6994665649590566E-2</v>
       </c>
       <c r="AF42">
         <f t="shared" si="22"/>
-        <v>1.3630511622046031</v>
+        <v>1.36305116220459</v>
       </c>
       <c r="AG42">
         <f t="shared" si="23"/>
-        <v>0.12844723880568543</v>
+        <v>0.12844723880568698</v>
       </c>
       <c r="AH42">
         <f t="shared" si="31"/>
-        <v>1.1750441053487959</v>
+        <v>1.1750441053487846</v>
       </c>
       <c r="AI42">
         <f t="shared" si="24"/>
-        <v>0.15665089555324729</v>
+        <v>0.1566508955532484</v>
       </c>
       <c r="AJ42">
         <f t="shared" si="32"/>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="L43">
-        <v>6.7311892846010357E-2</v>
+        <v>6.7311892846009205E-2</v>
       </c>
       <c r="M43">
         <v>0.99639999999999995</v>
@@ -6779,15 +6779,15 @@
       </c>
       <c r="AD43">
         <f t="shared" si="33"/>
-        <v>0.72002291392709616</v>
+        <v>0.72002291392709028</v>
       </c>
       <c r="AE43">
         <f t="shared" si="21"/>
-        <v>5.1452573156096304E-2</v>
+        <v>5.1452573156096415E-2</v>
       </c>
       <c r="AF43">
         <f t="shared" si="22"/>
-        <v>1.4914984010102885</v>
+        <v>1.491498401010277</v>
       </c>
       <c r="AG43">
         <f t="shared" si="23"/>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="AH43">
         <f t="shared" si="31"/>
-        <v>1.3316950009020432</v>
+        <v>1.331695000902033</v>
       </c>
       <c r="AI43">
         <f t="shared" si="24"/>
@@ -6843,7 +6843,7 @@
         <v>3</v>
       </c>
       <c r="L44">
-        <v>7.7694740840438162E-2</v>
+        <v>7.7694740840436927E-2</v>
       </c>
       <c r="M44">
         <v>0.99639999999999995</v>
@@ -6914,27 +6914,27 @@
       </c>
       <c r="AD44">
         <f t="shared" si="33"/>
-        <v>0.77147548708319247</v>
+        <v>0.7714754870831867</v>
       </c>
       <c r="AE44">
         <f t="shared" si="21"/>
-        <v>3.1072756530749479E-2</v>
+        <v>3.1072756530749257E-2</v>
       </c>
       <c r="AF44">
         <f t="shared" si="22"/>
-        <v>1.5740237306971343</v>
+        <v>1.5740237306971228</v>
       </c>
       <c r="AG44">
         <f t="shared" si="23"/>
-        <v>6.111880561997185E-2</v>
+        <v>6.1118805619971628E-2</v>
       </c>
       <c r="AH44">
         <f t="shared" si="31"/>
-        <v>1.405378330979584</v>
+        <v>1.4053783309795738</v>
       </c>
       <c r="AI44">
         <f t="shared" si="24"/>
-        <v>5.4570362160689223E-2</v>
+        <v>5.4570362160689001E-2</v>
       </c>
       <c r="AJ44">
         <f t="shared" si="32"/>
@@ -6978,7 +6978,7 @@
         <v>3</v>
       </c>
       <c r="L45">
-        <v>8.4373663117098222E-2</v>
+        <v>8.4373663117096917E-2</v>
       </c>
       <c r="M45">
         <v>0.99639999999999995</v>
@@ -7049,27 +7049,27 @@
       </c>
       <c r="AD45">
         <f t="shared" si="33"/>
-        <v>0.80254824361394195</v>
+        <v>0.80254824361393595</v>
       </c>
       <c r="AE45">
         <f t="shared" si="21"/>
-        <v>3.004604908922226E-2</v>
+        <v>3.0046049089222593E-2</v>
       </c>
       <c r="AF45">
         <f t="shared" si="22"/>
-        <v>1.6351425363171062</v>
+        <v>1.6351425363170944</v>
       </c>
       <c r="AG45">
         <f t="shared" si="23"/>
-        <v>-0.13541670964660657</v>
+        <v>-0.13541670964660746</v>
       </c>
       <c r="AH45">
         <f t="shared" si="31"/>
-        <v>1.4599486931402732</v>
+        <v>1.4599486931402628</v>
       </c>
       <c r="AI45">
         <f t="shared" si="24"/>
-        <v>-0.12090777647018447</v>
+        <v>-0.12090777647018536</v>
       </c>
       <c r="AJ45">
         <f t="shared" si="32"/>
@@ -7113,7 +7113,7 @@
         <v>3</v>
       </c>
       <c r="L46">
-        <v>9.1132279411482914E-2</v>
+        <v>9.1132279411481637E-2</v>
       </c>
       <c r="M46">
         <v>0.99639999999999995</v>
@@ -7184,27 +7184,27 @@
       </c>
       <c r="AD46">
         <f t="shared" si="33"/>
-        <v>0.83259429270316421</v>
+        <v>0.83259429270315854</v>
       </c>
       <c r="AE46">
         <f t="shared" si="21"/>
-        <v>-0.16546275873582883</v>
+        <v>-0.16546275873583005</v>
       </c>
       <c r="AF46">
         <f t="shared" si="22"/>
-        <v>1.4997258266704996</v>
+        <v>1.4997258266704869</v>
       </c>
       <c r="AG46">
         <f t="shared" si="23"/>
-        <v>-3.0793566710867193E-2</v>
+        <v>-3.0793566710866749E-2</v>
       </c>
       <c r="AH46">
         <f t="shared" si="31"/>
-        <v>1.3390409166700887</v>
+        <v>1.3390409166700774</v>
       </c>
       <c r="AI46">
         <f t="shared" si="24"/>
-        <v>-3.6479530704229823E-3</v>
+        <v>-3.6479530704227603E-3</v>
       </c>
       <c r="AJ46">
         <f t="shared" si="32"/>
@@ -7248,7 +7248,7 @@
         <v>3</v>
       </c>
       <c r="L47">
-        <v>5.7492742015167138E-2</v>
+        <v>5.7492742015165903E-2</v>
       </c>
       <c r="M47">
         <v>0.99639999999999995</v>
@@ -7319,27 +7319,27 @@
       </c>
       <c r="AD47">
         <f t="shared" si="33"/>
-        <v>0.66713153396733538</v>
+        <v>0.66713153396732849</v>
       </c>
       <c r="AE47">
         <f t="shared" si="21"/>
-        <v>0.13466919202496164</v>
+        <v>0.13466919202496319</v>
       </c>
       <c r="AF47">
         <f t="shared" si="22"/>
-        <v>1.4689322599596324</v>
+        <v>1.4689322599596202</v>
       </c>
       <c r="AG47">
         <f t="shared" si="23"/>
-        <v>7.5721997819506726E-3</v>
+        <v>7.5721997819502285E-3</v>
       </c>
       <c r="AH47">
         <f t="shared" si="31"/>
-        <v>1.3353929635996657</v>
+        <v>1.3353929635996546</v>
       </c>
       <c r="AI47">
         <f t="shared" si="24"/>
-        <v>6.8838179835915003E-3</v>
+        <v>6.8838179835910562E-3</v>
       </c>
       <c r="AJ47">
         <f t="shared" si="32"/>
@@ -7383,7 +7383,7 @@
         <v>2</v>
       </c>
       <c r="L48">
-        <v>8.4209307792742091E-2</v>
+        <v>8.4209307792740926E-2</v>
       </c>
       <c r="M48">
         <v>0.99639999999999995</v>
@@ -7454,27 +7454,27 @@
       </c>
       <c r="AD48">
         <f t="shared" si="33"/>
-        <v>0.80180072599229701</v>
+        <v>0.80180072599229169</v>
       </c>
       <c r="AE48">
         <f t="shared" si="21"/>
-        <v>-0.12709699224301096</v>
+        <v>-0.12709699224301285</v>
       </c>
       <c r="AF48">
         <f t="shared" si="22"/>
-        <v>1.4765044597415831</v>
+        <v>1.4765044597415704</v>
       </c>
       <c r="AG48" s="1">
         <f t="shared" si="23"/>
-        <v>-1.4765044597415831</v>
+        <v>-1.4765044597415704</v>
       </c>
       <c r="AH48">
         <f t="shared" si="31"/>
-        <v>1.3422767815832573</v>
+        <v>1.3422767815832457</v>
       </c>
       <c r="AI48" s="1">
         <f t="shared" si="24"/>
-        <v>-1.3422767815832573</v>
+        <v>-1.3422767815832457</v>
       </c>
       <c r="AJ48">
         <f t="shared" si="32"/>
@@ -7515,7 +7515,7 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <v>5.8846439974657702E-2</v>
+        <v>5.8846439974656398E-2</v>
       </c>
       <c r="M49">
         <v>0.99639999999999995</v>
@@ -7586,11 +7586,11 @@
       </c>
       <c r="AD49">
         <f t="shared" si="33"/>
-        <v>0.67470373374928605</v>
+        <v>0.67470373374927883</v>
       </c>
       <c r="AE49" s="1">
         <f t="shared" si="21"/>
-        <v>-0.67470373374928605</v>
+        <v>-0.67470373374927883</v>
       </c>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1">
@@ -7710,12 +7710,12 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1">
         <f t="shared" si="21"/>
-        <v>0.53711051936851539</v>
+        <v>0.53711051936850707</v>
       </c>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1">
         <f t="shared" si="23"/>
-        <v>0.95854367919581684</v>
+        <v>0.95854367919581551</v>
       </c>
       <c r="AH50" s="1">
         <f t="shared" si="31"/>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="AI50" s="1">
         <f t="shared" si="24"/>
-        <v>0.65653676657247728</v>
+        <v>0.65653676657247639</v>
       </c>
       <c r="AJ50" s="1">
         <f t="shared" si="32"/>
@@ -7767,7 +7767,7 @@
         <v>3</v>
       </c>
       <c r="L51">
-        <v>3.6873537365476869E-2</v>
+        <v>3.6873537365475717E-2</v>
       </c>
       <c r="M51">
         <v>0.99639999999999995</v>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="Q51">
         <f t="shared" si="11"/>
-        <v>-0.26</v>
+        <v>-0.24</v>
       </c>
       <c r="R51">
         <f t="shared" si="27"/>
@@ -7802,7 +7802,7 @@
       </c>
       <c r="U51">
         <f t="shared" si="13"/>
-        <v>-4.0000000000000036E-2</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V51">
         <f t="shared" si="14"/>
@@ -7838,27 +7838,27 @@
       </c>
       <c r="AD51">
         <f t="shared" ref="AD51:AD79" si="34">2*SQRT(2 * M51 * L51 - L51 * L51)</f>
-        <v>0.53711051936851539</v>
+        <v>0.53711051936850707</v>
       </c>
       <c r="AE51">
         <f t="shared" si="21"/>
-        <v>-0.11567735954121394</v>
+        <v>-0.11567735954119857</v>
       </c>
       <c r="AF51">
         <f t="shared" si="22"/>
-        <v>0.95854367919581684</v>
+        <v>0.95854367919581551</v>
       </c>
       <c r="AG51">
         <f t="shared" si="23"/>
-        <v>0.11773923038213452</v>
+        <v>0.12105860117069556</v>
       </c>
       <c r="AH51">
         <f t="shared" si="31"/>
-        <v>0.65653676657247728</v>
+        <v>0.65653676657247639</v>
       </c>
       <c r="AI51">
         <f t="shared" si="24"/>
-        <v>0.24036565807581556</v>
+        <v>0.22838313536728683</v>
       </c>
       <c r="AJ51">
         <f t="shared" si="32"/>
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I52">
         <f t="shared" si="9"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
@@ -7902,7 +7902,7 @@
         <v>3</v>
       </c>
       <c r="L52">
-        <v>2.2535798507053631E-2</v>
+        <v>2.2535798507054391E-2</v>
       </c>
       <c r="M52">
         <v>0.99639999999999995</v>
@@ -7913,15 +7913,15 @@
       </c>
       <c r="O52">
         <f t="shared" si="10"/>
-        <v>-4.0000000000000036E-2</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P52">
         <f t="shared" si="26"/>
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Q52">
         <f t="shared" si="11"/>
-        <v>-4.0000000000000036E-2</v>
+        <v>-6.0000000000000053E-2</v>
       </c>
       <c r="R52">
         <f t="shared" si="27"/>
@@ -7933,11 +7933,11 @@
       </c>
       <c r="T52">
         <f t="shared" si="28"/>
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="U52">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V52">
         <f t="shared" si="14"/>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="Y52">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-1.999999999999999E-2</v>
       </c>
       <c r="Z52">
         <f t="shared" si="30"/>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="AA52">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AB52">
         <f t="shared" si="19"/>
@@ -7969,31 +7969,31 @@
       </c>
       <c r="AC52">
         <f t="shared" si="20"/>
-        <v>-4.0000000000000036E-2</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD52">
         <f t="shared" si="34"/>
-        <v>0.42143315982730145</v>
+        <v>0.4214331598273085</v>
       </c>
       <c r="AE52">
         <f t="shared" si="21"/>
-        <v>0.23341658992334846</v>
+        <v>0.23673596071189401</v>
       </c>
       <c r="AF52">
         <f t="shared" si="22"/>
-        <v>1.0762829095779514</v>
+        <v>1.0796022803665111</v>
       </c>
       <c r="AG52">
         <f t="shared" si="23"/>
-        <v>0.28906239449944438</v>
+        <v>0.39180745308529263</v>
       </c>
       <c r="AH52">
         <f t="shared" si="31"/>
-        <v>0.89690242464829284</v>
+        <v>0.88491990193976322</v>
       </c>
       <c r="AI52">
         <f t="shared" si="24"/>
-        <v>0.28011938921153123</v>
+        <v>0.38353676482903321</v>
       </c>
       <c r="AJ52">
         <f t="shared" si="32"/>
@@ -8024,7 +8024,7 @@
       </c>
       <c r="H53">
         <f t="shared" si="8"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I53">
         <f t="shared" si="9"/>
@@ -8037,18 +8037,18 @@
         <v>3</v>
       </c>
       <c r="L53">
-        <v>5.5333630760891678E-2</v>
+        <v>5.5912726193403942E-2</v>
       </c>
       <c r="M53">
         <v>0.99639999999999995</v>
       </c>
       <c r="N53">
         <f t="shared" si="25"/>
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="O53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-3.9999999999999925E-2</v>
       </c>
       <c r="P53">
         <f t="shared" si="26"/>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="Q53">
         <f t="shared" si="11"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>-3.9999999999999813E-2</v>
       </c>
       <c r="R53">
         <f t="shared" si="27"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="S53">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="T53">
         <f t="shared" si="28"/>
@@ -8080,19 +8080,19 @@
       </c>
       <c r="W53">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1.999999999999999E-2</v>
       </c>
       <c r="X53">
         <f t="shared" si="29"/>
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y53">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.999999999999999E-2</v>
       </c>
       <c r="Z53">
         <f t="shared" si="30"/>
-        <v>0.32</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AA53">
         <f t="shared" si="18"/>
@@ -8100,39 +8100,39 @@
       </c>
       <c r="AB53">
         <f t="shared" si="19"/>
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AC53">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD53">
         <f t="shared" si="34"/>
-        <v>0.65484974975064991</v>
+        <v>0.65816912053920251</v>
       </c>
       <c r="AE53">
         <f t="shared" si="21"/>
-        <v>5.5645804576095914E-2</v>
+        <v>0.15507149237339868</v>
       </c>
       <c r="AF53">
         <f t="shared" si="22"/>
-        <v>1.3653453040773957</v>
+        <v>1.4714097334518037</v>
       </c>
       <c r="AG53">
         <f t="shared" si="23"/>
-        <v>6.5261714334129195E-2</v>
+        <v>6.1942343545579481E-2</v>
       </c>
       <c r="AH53">
         <f t="shared" si="31"/>
-        <v>1.1770218138598241</v>
+        <v>1.2684566667687964</v>
       </c>
       <c r="AI53">
         <f t="shared" si="24"/>
-        <v>7.7896623343268079E-2</v>
+        <v>0.10060768769315276</v>
       </c>
       <c r="AJ53">
         <f t="shared" si="32"/>
-        <v>103.44827586206897</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.2">
@@ -8149,7 +8149,7 @@
         <v>28</v>
       </c>
       <c r="E54">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F54">
         <v>130</v>
@@ -8172,34 +8172,34 @@
         <v>3</v>
       </c>
       <c r="L54">
-        <v>6.5480037371373964E-2</v>
+        <v>8.6744633183872114E-2</v>
       </c>
       <c r="M54">
         <v>0.99639999999999995</v>
       </c>
       <c r="N54">
         <f t="shared" si="25"/>
-        <v>0.57999999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="O54">
         <f t="shared" si="10"/>
-        <v>-1.9999999999999907E-2</v>
+        <v>0</v>
       </c>
       <c r="P54">
         <f t="shared" si="26"/>
-        <v>1.1399999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="Q54">
         <f t="shared" si="11"/>
-        <v>-1.9999999999999796E-2</v>
+        <v>0</v>
       </c>
       <c r="R54">
         <f t="shared" si="27"/>
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="S54">
         <f t="shared" si="12"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>0</v>
       </c>
       <c r="T54">
         <f t="shared" si="28"/>
@@ -8211,11 +8211,11 @@
       </c>
       <c r="V54">
         <f t="shared" si="14"/>
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.999999999999999E-2</v>
       </c>
       <c r="X54">
         <f t="shared" si="29"/>
@@ -8227,11 +8227,11 @@
       </c>
       <c r="Z54">
         <f t="shared" si="30"/>
-        <v>0.32</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AA54">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.9999999999999962E-2</v>
       </c>
       <c r="AB54">
         <f t="shared" si="19"/>
@@ -8243,31 +8243,31 @@
       </c>
       <c r="AD54">
         <f t="shared" si="34"/>
-        <v>0.71049555432674583</v>
+        <v>0.81324061291260119</v>
       </c>
       <c r="AE54">
         <f t="shared" si="21"/>
-        <v>9.6159097580333919E-3</v>
+        <v>-9.3129148827819197E-2</v>
       </c>
       <c r="AF54">
         <f t="shared" si="22"/>
-        <v>1.4306070184115249</v>
+        <v>1.5333520769973832</v>
       </c>
       <c r="AG54">
         <f t="shared" si="23"/>
-        <v>6.2820001111208779E-2</v>
+        <v>-3.9925057474644143E-2</v>
       </c>
       <c r="AH54">
         <f t="shared" si="31"/>
-        <v>1.2549184372030922</v>
+        <v>1.3690643544619492</v>
       </c>
       <c r="AI54">
         <f t="shared" si="24"/>
-        <v>7.8498544513634139E-2</v>
+        <v>-3.5647372745218009E-2</v>
       </c>
       <c r="AJ54">
         <f t="shared" si="32"/>
-        <v>103.44827586206897</v>
+        <v>107.14285714285714</v>
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.2">
@@ -8307,7 +8307,7 @@
         <v>3</v>
       </c>
       <c r="L55">
-        <v>6.7329050167093563E-2</v>
+        <v>6.7329050167094118E-2</v>
       </c>
       <c r="M55">
         <v>0.99639999999999995</v>
@@ -8378,15 +8378,15 @@
       </c>
       <c r="AD55">
         <f t="shared" si="34"/>
-        <v>0.72011146408477922</v>
+        <v>0.72011146408478199</v>
       </c>
       <c r="AE55">
         <f t="shared" si="21"/>
-        <v>5.3204091353175276E-2</v>
+        <v>5.3204091353174943E-2</v>
       </c>
       <c r="AF55">
         <f t="shared" si="22"/>
-        <v>1.4934270195227337</v>
+        <v>1.493427019522739</v>
       </c>
       <c r="AG55">
         <f t="shared" si="23"/>
@@ -8394,11 +8394,11 @@
       </c>
       <c r="AH55">
         <f t="shared" si="31"/>
-        <v>1.3334169817167263</v>
+        <v>1.3334169817167312</v>
       </c>
       <c r="AI55">
         <f t="shared" si="24"/>
-        <v>-6.3883400389485701E-2</v>
+        <v>-6.3883400389485923E-2</v>
       </c>
       <c r="AJ55">
         <f t="shared" si="32"/>
@@ -8442,7 +8442,7 @@
         <v>3</v>
       </c>
       <c r="L56">
-        <v>7.8081578683394826E-2</v>
+        <v>7.8081578683395325E-2</v>
       </c>
       <c r="M56">
         <v>0.99639999999999995</v>
@@ -8513,15 +8513,15 @@
       </c>
       <c r="AD56">
         <f t="shared" si="34"/>
-        <v>0.77331555543795449</v>
+        <v>0.77331555543795694</v>
       </c>
       <c r="AE56">
         <f t="shared" si="21"/>
-        <v>-9.9362828162854799E-2</v>
+        <v>-9.9362828162854355E-2</v>
       </c>
       <c r="AF56">
         <f t="shared" si="22"/>
-        <v>1.4472682827130541</v>
+        <v>1.4472682827130594</v>
       </c>
       <c r="AG56">
         <f t="shared" si="23"/>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="AH56">
         <f t="shared" si="31"/>
-        <v>1.2695335813272406</v>
+        <v>1.2695335813272453</v>
       </c>
       <c r="AI56">
         <f t="shared" si="24"/>
@@ -8577,7 +8577,7 @@
         <v>3</v>
       </c>
       <c r="L57">
-        <v>5.8711410782015673E-2</v>
+        <v>5.871141078201618E-2</v>
       </c>
       <c r="M57">
         <v>0.99639999999999995</v>
@@ -8648,27 +8648,27 @@
       </c>
       <c r="AD57">
         <f t="shared" si="34"/>
-        <v>0.67395272727509969</v>
+        <v>0.67395272727510258</v>
       </c>
       <c r="AE57">
         <f t="shared" si="21"/>
-        <v>6.1065850832358826E-2</v>
+        <v>6.1065850832358159E-2</v>
       </c>
       <c r="AF57">
         <f t="shared" si="22"/>
-        <v>1.4089713053825581</v>
+        <v>1.4089713053825634</v>
       </c>
       <c r="AG57">
         <f t="shared" si="23"/>
-        <v>-3.991883041920552E-2</v>
+        <v>-3.9918830419205964E-2</v>
       </c>
       <c r="AH57">
         <f t="shared" si="31"/>
-        <v>1.2580100940915697</v>
+        <v>1.2580100940915744</v>
       </c>
       <c r="AI57">
         <f t="shared" si="24"/>
-        <v>-1.3416935033976563E-2</v>
+        <v>-1.3416935033976785E-2</v>
       </c>
       <c r="AJ57">
         <f t="shared" si="32"/>
@@ -8712,7 +8712,7 @@
         <v>3</v>
       </c>
       <c r="L58">
-        <v>7.0252127109702592E-2</v>
+        <v>7.0252127109703036E-2</v>
       </c>
       <c r="M58">
         <v>0.99639999999999995</v>
@@ -8783,27 +8783,27 @@
       </c>
       <c r="AD58">
         <f t="shared" si="34"/>
-        <v>0.73501857810745852</v>
+        <v>0.73501857810746074</v>
       </c>
       <c r="AE58">
         <f t="shared" si="21"/>
-        <v>-0.10098468125156446</v>
+        <v>-0.10098468125156401</v>
       </c>
       <c r="AF58">
         <f t="shared" si="22"/>
-        <v>1.3690524749633526</v>
+        <v>1.3690524749633575</v>
       </c>
       <c r="AG58">
         <f t="shared" si="23"/>
-        <v>-1.5398851780787925E-2</v>
+        <v>-1.5398851780788148E-2</v>
       </c>
       <c r="AH58">
         <f t="shared" si="31"/>
-        <v>1.2445931590575932</v>
+        <v>1.2445931590575976</v>
       </c>
       <c r="AI58">
         <f t="shared" si="24"/>
-        <v>-3.5973852644589188E-2</v>
+        <v>-3.597385264458941E-2</v>
       </c>
       <c r="AJ58">
         <f t="shared" si="32"/>
@@ -8847,7 +8847,7 @@
         <v>3</v>
       </c>
       <c r="L59">
-        <v>5.1776681205978087E-2</v>
+        <v>5.1776681205978517E-2</v>
       </c>
       <c r="M59">
         <v>0.99639999999999995</v>
@@ -8918,27 +8918,27 @@
       </c>
       <c r="AD59">
         <f t="shared" si="34"/>
-        <v>0.63403389685589406</v>
+        <v>0.63403389685589673</v>
       </c>
       <c r="AE59">
         <f t="shared" si="21"/>
-        <v>8.5585829470776531E-2</v>
+        <v>8.5585829470775865E-2</v>
       </c>
       <c r="AF59">
         <f t="shared" si="22"/>
-        <v>1.3536536231825647</v>
+        <v>1.3536536231825693</v>
       </c>
       <c r="AG59">
         <f t="shared" si="23"/>
-        <v>-3.4714904384879119E-2</v>
+        <v>-3.4714904384879341E-2</v>
       </c>
       <c r="AH59">
         <f t="shared" si="31"/>
-        <v>1.208619306413004</v>
+        <v>1.2086193064130082</v>
       </c>
       <c r="AI59">
         <f t="shared" si="24"/>
-        <v>-5.1655517993981492E-2</v>
+        <v>-5.1655517993981714E-2</v>
       </c>
       <c r="AJ59">
         <f t="shared" si="32"/>
@@ -8982,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="L60">
-        <v>6.7233802610974266E-2</v>
+        <v>6.7233802610974655E-2</v>
       </c>
       <c r="M60">
         <v>0.99639999999999995</v>
@@ -9053,27 +9053,27 @@
       </c>
       <c r="AD60">
         <f t="shared" si="34"/>
-        <v>0.71961972632667059</v>
+        <v>0.71961972632667259</v>
       </c>
       <c r="AE60">
         <f t="shared" si="21"/>
-        <v>-0.12030073385565565</v>
+        <v>-0.12030073385565521</v>
       </c>
       <c r="AF60">
         <f t="shared" si="22"/>
-        <v>1.3189387187976855</v>
+        <v>1.31893871879769</v>
       </c>
       <c r="AG60">
         <f t="shared" si="23"/>
-        <v>3.541341615132465E-2</v>
+        <v>3.5413416151323984E-2</v>
       </c>
       <c r="AH60">
         <f t="shared" si="31"/>
-        <v>1.1569637884190225</v>
+        <v>1.1569637884190265</v>
       </c>
       <c r="AI60">
         <f t="shared" si="24"/>
-        <v>5.2279189214022193E-2</v>
+        <v>5.2279189214021526E-2</v>
       </c>
       <c r="AJ60">
         <f t="shared" si="32"/>
@@ -9117,7 +9117,7 @@
         <v>3</v>
       </c>
       <c r="L61">
-        <v>4.6127856708468029E-2</v>
+        <v>4.6127856708468418E-2</v>
       </c>
       <c r="M61">
         <v>0.99639999999999995</v>
@@ -9188,27 +9188,27 @@
       </c>
       <c r="AD61">
         <f t="shared" si="34"/>
-        <v>0.59931899247101494</v>
+        <v>0.59931899247101739</v>
       </c>
       <c r="AE61">
         <f t="shared" si="21"/>
-        <v>0.15571415000698019</v>
+        <v>0.15571415000697919</v>
       </c>
       <c r="AF61">
         <f t="shared" si="22"/>
-        <v>1.3543521349490102</v>
+        <v>1.354352134949014</v>
       </c>
       <c r="AG61">
         <f t="shared" si="23"/>
-        <v>8.8594342077692456E-2</v>
+        <v>8.859434207769179E-2</v>
       </c>
       <c r="AH61">
         <f t="shared" si="31"/>
-        <v>1.2092429776330447</v>
+        <v>1.209242977633048</v>
       </c>
       <c r="AI61">
         <f t="shared" si="24"/>
-        <v>0.10252654693668495</v>
+        <v>0.1025265469366845</v>
       </c>
       <c r="AJ61">
         <f t="shared" si="32"/>
@@ -9252,7 +9252,7 @@
         <v>3</v>
       </c>
       <c r="L62">
-        <v>7.4286016568477095E-2</v>
+        <v>7.42860165684774E-2</v>
       </c>
       <c r="M62">
         <v>0.99639999999999995</v>
@@ -9323,27 +9323,27 @@
       </c>
       <c r="AD62">
         <f t="shared" si="34"/>
-        <v>0.75503314247799513</v>
+        <v>0.75503314247799658</v>
       </c>
       <c r="AE62">
         <f t="shared" si="21"/>
-        <v>-6.7119807929287623E-2</v>
+        <v>-6.7119807929287512E-2</v>
       </c>
       <c r="AF62">
         <f t="shared" si="22"/>
-        <v>1.4429464770267026</v>
+        <v>1.4429464770267058</v>
       </c>
       <c r="AG62">
         <f t="shared" si="23"/>
-        <v>9.0522914946555177E-2</v>
+        <v>9.0522914946554955E-2</v>
       </c>
       <c r="AH62">
         <f t="shared" si="31"/>
-        <v>1.3117695245697296</v>
+        <v>1.3117695245697325</v>
       </c>
       <c r="AI62">
         <f t="shared" si="24"/>
-        <v>3.3379064880496578E-2</v>
+        <v>3.3379064880496356E-2</v>
       </c>
       <c r="AJ62">
         <f t="shared" si="32"/>
@@ -9387,7 +9387,7 @@
         <v>3</v>
       </c>
       <c r="L63">
-        <v>6.1249332440210733E-2</v>
+        <v>6.124933244021101E-2</v>
       </c>
       <c r="M63">
         <v>0.99639999999999995</v>
@@ -9458,27 +9458,27 @@
       </c>
       <c r="AD63">
         <f t="shared" si="34"/>
-        <v>0.68791333454870751</v>
+        <v>0.68791333454870907</v>
       </c>
       <c r="AE63">
         <f t="shared" si="21"/>
-        <v>0.1576427228758428</v>
+        <v>0.15764272287584247</v>
       </c>
       <c r="AF63">
         <f t="shared" si="22"/>
-        <v>1.5334693919732578</v>
+        <v>1.5334693919732607</v>
       </c>
       <c r="AG63">
         <f t="shared" si="23"/>
-        <v>7.9672483274591421E-2</v>
+        <v>7.9672483274590533E-2</v>
       </c>
       <c r="AH63">
         <f t="shared" si="31"/>
-        <v>1.3451485894502262</v>
+        <v>1.3451485894502289</v>
       </c>
       <c r="AI63">
         <f t="shared" si="24"/>
-        <v>9.5156656306781828E-2</v>
+        <v>9.515665630678094E-2</v>
       </c>
       <c r="AJ63">
         <f t="shared" si="32"/>
@@ -9522,7 +9522,7 @@
         <v>3</v>
       </c>
       <c r="L64">
-        <v>9.4140780907081764E-2</v>
+        <v>9.4140780907082042E-2</v>
       </c>
       <c r="M64">
         <v>0.99639999999999995</v>
@@ -9593,27 +9593,27 @@
       </c>
       <c r="AD64">
         <f t="shared" si="34"/>
-        <v>0.84555605742455031</v>
+        <v>0.84555605742455153</v>
       </c>
       <c r="AE64">
         <f t="shared" si="21"/>
-        <v>-7.7970239601251379E-2</v>
+        <v>-7.7970239601251712E-2</v>
       </c>
       <c r="AF64">
         <f t="shared" si="22"/>
-        <v>1.6131418752478492</v>
+        <v>1.6131418752478512</v>
       </c>
       <c r="AG64">
         <f t="shared" si="23"/>
-        <v>-9.8385183677510257E-2</v>
+        <v>-9.8385183677510701E-2</v>
       </c>
       <c r="AH64">
         <f t="shared" si="31"/>
-        <v>1.440305245757008</v>
+        <v>1.4403052457570098</v>
       </c>
       <c r="AI64">
         <f t="shared" si="24"/>
-        <v>-8.7843913997776912E-2</v>
+        <v>-8.7843913997777356E-2</v>
       </c>
       <c r="AJ64">
         <f t="shared" si="32"/>
@@ -9657,7 +9657,7 @@
         <v>3</v>
       </c>
       <c r="L65">
-        <v>7.6880580374109608E-2</v>
+        <v>7.6880580374109789E-2</v>
       </c>
       <c r="M65">
         <v>0.99639999999999995</v>
@@ -9728,27 +9728,27 @@
       </c>
       <c r="AD65">
         <f t="shared" si="34"/>
-        <v>0.76758581782329893</v>
+        <v>0.76758581782329982</v>
       </c>
       <c r="AE65">
         <f t="shared" si="21"/>
-        <v>-2.0414944076258879E-2</v>
+        <v>-2.0414944076259101E-2</v>
       </c>
       <c r="AF65">
         <f t="shared" si="22"/>
-        <v>1.514756691570339</v>
+        <v>1.5147566915703405</v>
       </c>
       <c r="AG65">
         <f t="shared" si="23"/>
-        <v>1.6681532056787685E-2</v>
+        <v>1.6681532056787463E-2</v>
       </c>
       <c r="AH65">
         <f t="shared" si="31"/>
-        <v>1.3524613317592311</v>
+        <v>1.3524613317592324</v>
       </c>
       <c r="AI65">
         <f t="shared" si="24"/>
-        <v>-9.0944689284180313E-3</v>
+        <v>-9.0944689284182534E-3</v>
       </c>
       <c r="AJ65">
         <f t="shared" si="32"/>
@@ -9792,7 +9792,7 @@
         <v>3</v>
       </c>
       <c r="L66">
-        <v>7.2686363987181798E-2</v>
+        <v>7.2686363987181923E-2</v>
       </c>
       <c r="M66">
         <v>0.99639999999999995</v>
@@ -9863,7 +9863,7 @@
       </c>
       <c r="AD66">
         <f t="shared" si="34"/>
-        <v>0.74717087374704005</v>
+        <v>0.74717087374704072</v>
       </c>
       <c r="AE66">
         <f t="shared" si="21"/>
@@ -9871,19 +9871,19 @@
       </c>
       <c r="AF66">
         <f t="shared" si="22"/>
-        <v>1.5314382236271267</v>
+        <v>1.531438223627128</v>
       </c>
       <c r="AG66">
         <f t="shared" si="23"/>
-        <v>5.2068662867514437E-2</v>
+        <v>5.2068662867513993E-2</v>
       </c>
       <c r="AH66">
         <f t="shared" ref="AH66:AH78" si="41">AF66/P66</f>
-        <v>1.3433668628308131</v>
+        <v>1.3433668628308142</v>
       </c>
       <c r="AI66">
         <f t="shared" si="24"/>
-        <v>7.0478571539402068E-2</v>
+        <v>7.0478571539401846E-2</v>
       </c>
       <c r="AJ66">
         <f t="shared" ref="AJ66:AJ80" si="42">60 / N66</f>
@@ -9927,7 +9927,7 @@
         <v>3</v>
       </c>
       <c r="L67">
-        <v>8.0406473288147914E-2</v>
+        <v>8.0406473288148039E-2</v>
       </c>
       <c r="M67">
         <v>0.99639999999999995</v>
@@ -9998,15 +9998,15 @@
       </c>
       <c r="AD67">
         <f t="shared" si="34"/>
-        <v>0.78426734988008651</v>
+        <v>0.78426734988008717</v>
       </c>
       <c r="AE67">
         <f t="shared" ref="AE67:AE78" si="55">AD68-AD67</f>
-        <v>1.4972186734468096E-2</v>
+        <v>1.4972186734467763E-2</v>
       </c>
       <c r="AF67">
         <f t="shared" ref="AF67:AF78" si="56">AD67+AD68</f>
-        <v>1.5835068864946411</v>
+        <v>1.583506886494642</v>
       </c>
       <c r="AG67">
         <f t="shared" ref="AG67:AG77" si="57">AF68-AF67</f>
@@ -10014,11 +10014,11 @@
       </c>
       <c r="AH67">
         <f t="shared" si="41"/>
-        <v>1.4138454343702151</v>
+        <v>1.413845434370216</v>
       </c>
       <c r="AI67">
         <f t="shared" ref="AI67:AI77" si="58">AH68-AH67</f>
-        <v>-5.7566222923632004E-2</v>
+        <v>-5.7566222923632226E-2</v>
       </c>
       <c r="AJ67">
         <f t="shared" si="42"/>
@@ -10062,7 +10062,7 @@
         <v>3</v>
       </c>
       <c r="L68">
-        <v>8.3647568736167119E-2</v>
+        <v>8.3647568736167188E-2</v>
       </c>
       <c r="M68">
         <v>0.99639999999999995</v>
@@ -10133,7 +10133,7 @@
       </c>
       <c r="AD68">
         <f t="shared" si="34"/>
-        <v>0.7992395366145546</v>
+        <v>0.79923953661455494</v>
       </c>
       <c r="AE68">
         <f t="shared" si="55"/>
@@ -10141,19 +10141,19 @@
       </c>
       <c r="AF68">
         <f t="shared" si="56"/>
-        <v>1.5190327168201732</v>
+        <v>1.519032716820174</v>
       </c>
       <c r="AG68">
         <f t="shared" si="57"/>
-        <v>-2.39857513619679E-3</v>
+        <v>-2.3985751361972341E-3</v>
       </c>
       <c r="AH68">
         <f t="shared" si="41"/>
-        <v>1.3562792114465831</v>
+        <v>1.3562792114465838</v>
       </c>
       <c r="AI68">
         <f t="shared" si="58"/>
-        <v>-2.5898385408007263E-2</v>
+        <v>-2.5898385408007485E-2</v>
       </c>
       <c r="AJ68">
         <f t="shared" si="42"/>
@@ -10197,7 +10197,7 @@
         <v>3</v>
       </c>
       <c r="L69">
-        <v>6.7267391363121723E-2</v>
+        <v>6.7267391363121778E-2</v>
       </c>
       <c r="M69">
         <v>0.99639999999999995</v>
@@ -10268,27 +10268,27 @@
       </c>
       <c r="AD69">
         <f t="shared" si="34"/>
-        <v>0.71979318020561867</v>
+        <v>0.719793180205619</v>
       </c>
       <c r="AE69">
         <f t="shared" si="55"/>
-        <v>7.7047781272739035E-2</v>
+        <v>7.7047781272738813E-2</v>
       </c>
       <c r="AF69">
         <f t="shared" si="56"/>
-        <v>1.5166341416839764</v>
+        <v>1.5166341416839768</v>
       </c>
       <c r="AG69">
         <f t="shared" si="57"/>
-        <v>7.2162984638039163E-2</v>
+        <v>7.2162984638038941E-2</v>
       </c>
       <c r="AH69">
         <f t="shared" si="41"/>
-        <v>1.3303808260385759</v>
+        <v>1.3303808260385763</v>
       </c>
       <c r="AI69">
         <f t="shared" si="58"/>
-        <v>6.330086371757826E-2</v>
+        <v>6.3300863717578038E-2</v>
       </c>
       <c r="AJ69">
         <f t="shared" si="42"/>
@@ -10332,7 +10332,7 @@
         <v>3</v>
       </c>
       <c r="L70">
-        <v>8.3123436998648464E-2</v>
+        <v>8.3123436998648492E-2</v>
       </c>
       <c r="M70">
         <v>0.99639999999999995</v>
@@ -10403,27 +10403,27 @@
       </c>
       <c r="AD70">
         <f t="shared" si="34"/>
-        <v>0.7968409614783577</v>
+        <v>0.79684096147835781</v>
       </c>
       <c r="AE70">
         <f t="shared" si="55"/>
-        <v>-4.8847966346997618E-3</v>
+        <v>-4.8847966346998728E-3</v>
       </c>
       <c r="AF70">
         <f t="shared" si="56"/>
-        <v>1.5887971263220155</v>
+        <v>1.5887971263220158</v>
       </c>
       <c r="AG70">
         <f t="shared" si="57"/>
-        <v>-3.1630758451939744E-2</v>
+        <v>-3.1630758451939966E-2</v>
       </c>
       <c r="AH70">
         <f t="shared" si="41"/>
-        <v>1.3936816897561541</v>
+        <v>1.3936816897561544</v>
       </c>
       <c r="AI70">
         <f t="shared" si="58"/>
-        <v>-2.7746279343806801E-2</v>
+        <v>-2.7746279343807023E-2</v>
       </c>
       <c r="AJ70">
         <f t="shared" si="42"/>
@@ -10542,7 +10542,7 @@
       </c>
       <c r="AE71">
         <f t="shared" si="55"/>
-        <v>-2.6745961817239983E-2</v>
+        <v>-2.6745961817240094E-2</v>
       </c>
       <c r="AF71">
         <f t="shared" si="56"/>
@@ -10550,7 +10550,7 @@
       </c>
       <c r="AG71">
         <f t="shared" si="57"/>
-        <v>-0.16074597860235218</v>
+        <v>-0.16074597860235285</v>
       </c>
       <c r="AH71">
         <f t="shared" si="41"/>
@@ -10558,7 +10558,7 @@
       </c>
       <c r="AI71">
         <f t="shared" si="58"/>
-        <v>-0.14100524438802831</v>
+        <v>-0.14100524438802897</v>
       </c>
       <c r="AJ71">
         <f t="shared" si="42"/>
@@ -10602,7 +10602,7 @@
         <v>3</v>
       </c>
       <c r="L72">
-        <v>7.6385708645747688E-2</v>
+        <v>7.6385708645747674E-2</v>
       </c>
       <c r="M72">
         <v>0.99639999999999995</v>
@@ -10673,27 +10673,27 @@
       </c>
       <c r="AD72">
         <f t="shared" si="34"/>
-        <v>0.76521020302641796</v>
+        <v>0.76521020302641785</v>
       </c>
       <c r="AE72">
         <f t="shared" si="55"/>
-        <v>-0.13400001678511231</v>
+        <v>-0.13400001678511275</v>
       </c>
       <c r="AF72">
         <f t="shared" si="56"/>
-        <v>1.3964203892677236</v>
+        <v>1.3964203892677229</v>
       </c>
       <c r="AG72">
         <f t="shared" si="57"/>
-        <v>-2.2633676872205744E-2</v>
+        <v>-2.2633676872206188E-2</v>
       </c>
       <c r="AH72">
         <f t="shared" si="41"/>
-        <v>1.224930166024319</v>
+        <v>1.2249301660243184</v>
       </c>
       <c r="AI72">
         <f t="shared" si="58"/>
-        <v>-4.0631276028182839E-2</v>
+        <v>-4.0631276028183061E-2</v>
       </c>
       <c r="AJ72">
         <f t="shared" si="42"/>
@@ -10737,7 +10737,7 @@
         <v>3</v>
       </c>
       <c r="L73">
-        <v>5.1304033869414893E-2</v>
+        <v>5.1304033869414817E-2</v>
       </c>
       <c r="M73">
         <v>0.99639999999999995</v>
@@ -10808,15 +10808,15 @@
       </c>
       <c r="AD73">
         <f t="shared" si="34"/>
-        <v>0.63121018624130565</v>
+        <v>0.63121018624130509</v>
       </c>
       <c r="AE73">
         <f t="shared" si="55"/>
-        <v>0.11136633991290656</v>
+        <v>0.11136633991290668</v>
       </c>
       <c r="AF73">
         <f t="shared" si="56"/>
-        <v>1.3737867123955179</v>
+        <v>1.3737867123955168</v>
       </c>
       <c r="AG73">
         <f t="shared" si="57"/>
@@ -10824,7 +10824,7 @@
       </c>
       <c r="AH73">
         <f t="shared" si="41"/>
-        <v>1.1842988899961362</v>
+        <v>1.1842988899961353</v>
       </c>
       <c r="AI73">
         <f t="shared" si="58"/>
@@ -10872,7 +10872,7 @@
         <v>3</v>
       </c>
       <c r="L74">
-        <v>7.1760618564628939E-2</v>
+        <v>7.1760618564628828E-2</v>
       </c>
       <c r="M74">
         <v>0.99639999999999995</v>
@@ -10943,27 +10943,27 @@
       </c>
       <c r="AD74">
         <f t="shared" si="34"/>
-        <v>0.74257652615421221</v>
+        <v>0.74257652615421177</v>
       </c>
       <c r="AE74">
         <f t="shared" si="55"/>
-        <v>4.8847145464457786E-2</v>
+        <v>4.8847145464457675E-2</v>
       </c>
       <c r="AF74">
         <f t="shared" si="56"/>
-        <v>1.5340001977728823</v>
+        <v>1.5340001977728812</v>
       </c>
       <c r="AG74">
         <f t="shared" si="57"/>
-        <v>3.7336465584183021E-2</v>
+        <v>3.7336465584182577E-2</v>
       </c>
       <c r="AH74">
         <f t="shared" si="41"/>
-        <v>1.3224139635973124</v>
+        <v>1.3224139635973116</v>
       </c>
       <c r="AI74">
         <f t="shared" si="58"/>
-        <v>5.5951530575552022E-2</v>
+        <v>5.5951530575551578E-2</v>
       </c>
       <c r="AJ74">
         <f t="shared" si="42"/>
@@ -11007,7 +11007,7 @@
         <v>3</v>
       </c>
       <c r="L75">
-        <v>8.1946555039347072E-2</v>
+        <v>8.1946555039346947E-2</v>
       </c>
       <c r="M75">
         <v>0.99639999999999995</v>
@@ -11078,27 +11078,27 @@
       </c>
       <c r="AD75">
         <f t="shared" si="34"/>
-        <v>0.79142367161867</v>
+        <v>0.79142367161866944</v>
       </c>
       <c r="AE75">
         <f t="shared" si="55"/>
-        <v>-1.1510679880274544E-2</v>
+        <v>-1.1510679880275099E-2</v>
       </c>
       <c r="AF75">
         <f t="shared" si="56"/>
-        <v>1.5713366633570653</v>
+        <v>1.5713366633570638</v>
       </c>
       <c r="AG75">
         <f t="shared" si="57"/>
-        <v>-7.876239179522182E-3</v>
+        <v>-7.8762391795226261E-3</v>
       </c>
       <c r="AH75">
         <f t="shared" si="41"/>
-        <v>1.3783654941728645</v>
+        <v>1.3783654941728631</v>
       </c>
       <c r="AI75">
         <f t="shared" si="58"/>
-        <v>-6.9089817364229589E-3</v>
+        <v>-6.908981736423403E-3</v>
       </c>
       <c r="AJ75">
         <f t="shared" si="42"/>
@@ -11142,7 +11142,7 @@
         <v>3</v>
       </c>
       <c r="L76">
-        <v>7.9477488917729544E-2</v>
+        <v>7.9477488917729322E-2</v>
       </c>
       <c r="M76">
         <v>0.99639999999999995</v>
@@ -11213,27 +11213,27 @@
       </c>
       <c r="AD76">
         <f t="shared" si="34"/>
-        <v>0.77991299173839546</v>
+        <v>0.77991299173839435</v>
       </c>
       <c r="AE76">
         <f t="shared" si="55"/>
-        <v>3.6344407007522506E-3</v>
+        <v>3.6344407007523616E-3</v>
       </c>
       <c r="AF76">
         <f t="shared" si="56"/>
-        <v>1.5634604241775432</v>
+        <v>1.5634604241775412</v>
       </c>
       <c r="AG76">
         <f t="shared" si="57"/>
-        <v>-1.2265083810515831E-2</v>
+        <v>-1.2265083810516275E-2</v>
       </c>
       <c r="AH76">
         <f t="shared" si="41"/>
-        <v>1.3714565124364415</v>
+        <v>1.3714565124364397</v>
       </c>
       <c r="AI76">
         <f t="shared" si="58"/>
-        <v>-3.4219150051073122E-2</v>
+        <v>-3.4219150051073344E-2</v>
       </c>
       <c r="AJ76">
         <f t="shared" si="42"/>
@@ -11277,7 +11277,7 @@
         <v>3</v>
       </c>
       <c r="L77">
-        <v>8.0252459873681251E-2</v>
+        <v>8.0252459873681029E-2</v>
       </c>
       <c r="M77">
         <v>0.99639999999999995</v>
@@ -11348,27 +11348,27 @@
       </c>
       <c r="AD77">
         <f t="shared" si="34"/>
-        <v>0.78354743243914771</v>
+        <v>0.78354743243914671</v>
       </c>
       <c r="AE77">
         <f t="shared" si="55"/>
-        <v>-1.5899524511268082E-2</v>
+        <v>-1.5899524511268526E-2</v>
       </c>
       <c r="AF77">
         <f t="shared" si="56"/>
-        <v>1.5511953403670273</v>
+        <v>1.5511953403670249</v>
       </c>
       <c r="AG77">
         <f t="shared" si="57"/>
-        <v>-5.6319404363676107E-2</v>
+        <v>-5.6319404363676773E-2</v>
       </c>
       <c r="AH77">
         <f t="shared" si="41"/>
-        <v>1.3372373623853684</v>
+        <v>1.3372373623853664</v>
       </c>
       <c r="AI77">
         <f t="shared" si="58"/>
-        <v>-2.5942681680674262E-2</v>
+        <v>-2.5942681680674928E-2</v>
       </c>
       <c r="AJ77">
         <f t="shared" si="42"/>
@@ -11412,7 +11412,7 @@
         <v>2</v>
       </c>
       <c r="L78">
-        <v>7.6893538704872741E-2</v>
+        <v>7.6893538704872436E-2</v>
       </c>
       <c r="M78">
         <v>0.99639999999999995</v>
@@ -11477,7 +11477,7 @@
       </c>
       <c r="AD78">
         <f t="shared" si="34"/>
-        <v>0.76764790792787962</v>
+        <v>0.76764790792787818</v>
       </c>
       <c r="AE78">
         <f t="shared" si="55"/>
@@ -11485,12 +11485,12 @@
       </c>
       <c r="AF78">
         <f t="shared" si="56"/>
-        <v>1.4948759360033512</v>
+        <v>1.4948759360033481</v>
       </c>
       <c r="AG78" s="1"/>
       <c r="AH78">
         <f t="shared" si="41"/>
-        <v>1.3112946807046941</v>
+        <v>1.3112946807046915</v>
       </c>
       <c r="AI78" s="1"/>
       <c r="AJ78">
@@ -11532,7 +11532,7 @@
         <v>1</v>
       </c>
       <c r="L79">
-        <v>6.8715889542477232E-2</v>
+        <v>6.8715889542476941E-2</v>
       </c>
       <c r="M79">
         <v>0.99639999999999995</v>
@@ -11579,7 +11579,7 @@
       <c r="AC79" s="1"/>
       <c r="AD79">
         <f t="shared" si="34"/>
-        <v>0.72722802807547149</v>
+        <v>0.72722802807547005</v>
       </c>
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
